--- a/wikipedia_validation_sheets/Xerostomia DISNET VALIDATION.xlsx
+++ b/wikipedia_validation_sheets/Xerostomia DISNET VALIDATION.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/GITLAB/wikipedia_validation_sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/paperdisnet/wikipedia_validation_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{33732233-9ECE-054B-B21D-55A88AB15059}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382DD1B1-6A52-E84B-8C13-D86D3C792E2E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39780" yWindow="460" windowWidth="25600" windowHeight="21060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VALIDATION" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VALIDATION!$A$3:$I$3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -47,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="168">
   <si>
     <t>Xerostomia</t>
   </si>
@@ -494,13 +502,70 @@
   </si>
   <si>
     <t>FPCONTEXT</t>
+  </si>
+  <si>
+    <t>neoplasia</t>
+  </si>
+  <si>
+    <t>Neoplasms</t>
+  </si>
+  <si>
+    <t>[neop]</t>
+  </si>
+  <si>
+    <t>atrophy</t>
+  </si>
+  <si>
+    <t>Atrophic</t>
+  </si>
+  <si>
+    <t>[patf]</t>
+  </si>
+  <si>
+    <t>demineralization</t>
+  </si>
+  <si>
+    <t>Decalcification</t>
+  </si>
+  <si>
+    <t>affect</t>
+  </si>
+  <si>
+    <t>Affect, NOS</t>
+  </si>
+  <si>
+    <t>[menp]</t>
+  </si>
+  <si>
+    <t>erosion</t>
+  </si>
+  <si>
+    <t>Superficial ulcer</t>
+  </si>
+  <si>
+    <t>[acab]</t>
+  </si>
+  <si>
+    <t>suspicion</t>
+  </si>
+  <si>
+    <t>Suspicion</t>
+  </si>
+  <si>
+    <t>autoimmune</t>
+  </si>
+  <si>
+    <t>Autoimmune reaction</t>
+  </si>
+  <si>
+    <t>FPREAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -537,6 +602,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -899,7 +971,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -953,9 +1025,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
@@ -968,11 +1037,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1306,13 +1374,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC7570A-83F1-A74C-A048-0908132433A5}">
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="129" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="B70" zoomScale="129" workbookViewId="0">
+      <selection activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
@@ -1322,38 +1390,38 @@
     <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
+      <c r="B1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
     </row>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="47"/>
+      <c r="D2" s="45"/>
       <c r="E2" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="50"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48"/>
     </row>
     <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -1385,7 +1453,7 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="37" t="s">
         <v>124</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -1414,7 +1482,7 @@
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="41" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="25" t="s">
@@ -1443,7 +1511,7 @@
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="41" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="25" t="s">
@@ -1472,7 +1540,7 @@
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="41" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="25" t="s">
@@ -1501,7 +1569,7 @@
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="41" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="25" t="s">
@@ -1530,7 +1598,7 @@
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="41" t="s">
         <v>121</v>
       </c>
       <c r="C9" s="25" t="s">
@@ -1559,7 +1627,7 @@
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="41" t="s">
         <v>40</v>
       </c>
       <c r="C10" s="25" t="s">
@@ -1588,7 +1656,7 @@
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="41" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="25" t="s">
@@ -1617,7 +1685,7 @@
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="41" t="s">
         <v>129</v>
       </c>
       <c r="C12" s="25" t="s">
@@ -1646,7 +1714,7 @@
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="41" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="25" t="s">
@@ -1675,7 +1743,7 @@
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="41" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="25" t="s">
@@ -1704,7 +1772,7 @@
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="41" t="s">
         <v>122</v>
       </c>
       <c r="C15" s="25" t="s">
@@ -1733,7 +1801,7 @@
       <c r="A16">
         <v>13</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="41" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="25" t="s">
@@ -1762,7 +1830,7 @@
       <c r="A17">
         <v>14</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="41" t="s">
         <v>130</v>
       </c>
       <c r="C17" s="25" t="s">
@@ -1791,7 +1859,7 @@
       <c r="A18">
         <v>15</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="41" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="25" t="s">
@@ -1820,7 +1888,7 @@
       <c r="A19">
         <v>16</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="41" t="s">
         <v>120</v>
       </c>
       <c r="C19" s="25" t="s">
@@ -1849,7 +1917,7 @@
       <c r="A20">
         <v>17</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="41" t="s">
         <v>126</v>
       </c>
       <c r="C20" s="25" t="s">
@@ -1878,7 +1946,7 @@
       <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="41" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="25" t="s">
@@ -1907,7 +1975,7 @@
       <c r="A22">
         <v>19</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="41" t="s">
         <v>42</v>
       </c>
       <c r="C22" s="25" t="s">
@@ -1936,7 +2004,7 @@
       <c r="A23">
         <v>20</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="41" t="s">
         <v>128</v>
       </c>
       <c r="C23" s="25" t="s">
@@ -1965,7 +2033,7 @@
       <c r="A24">
         <v>21</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="41" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="25" t="s">
@@ -1994,7 +2062,7 @@
       <c r="A25">
         <v>22</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="41" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="25" t="s">
@@ -2023,7 +2091,7 @@
       <c r="A26">
         <v>23</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="41" t="s">
         <v>39</v>
       </c>
       <c r="C26" s="25" t="s">
@@ -2052,7 +2120,7 @@
       <c r="A27">
         <v>24</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="41" t="s">
         <v>125</v>
       </c>
       <c r="C27" s="25" t="s">
@@ -2081,7 +2149,7 @@
       <c r="A28">
         <v>25</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="41" t="s">
         <v>127</v>
       </c>
       <c r="C28" s="25" t="s">
@@ -2110,7 +2178,7 @@
       <c r="A29">
         <v>26</v>
       </c>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="41" t="s">
         <v>119</v>
       </c>
       <c r="C29" s="25" t="s">
@@ -2139,7 +2207,7 @@
       <c r="A30">
         <v>27</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="41" t="s">
         <v>31</v>
       </c>
       <c r="C30" s="25" t="s">
@@ -2168,7 +2236,7 @@
       <c r="A31">
         <v>28</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="41" t="s">
         <v>2</v>
       </c>
       <c r="C31" s="25" t="s">
@@ -2197,7 +2265,7 @@
       <c r="A32">
         <v>29</v>
       </c>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="41" t="s">
         <v>123</v>
       </c>
       <c r="C32" s="25" t="s">
@@ -2226,7 +2294,7 @@
       <c r="A33">
         <v>30</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="41" t="s">
         <v>0</v>
       </c>
       <c r="C33" s="25" t="s">
@@ -2255,7 +2323,7 @@
       <c r="A34">
         <v>31</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="41" t="s">
         <v>50</v>
       </c>
       <c r="C34" s="25" t="s">
@@ -3411,20 +3479,20 @@
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>71</v>
       </c>
-      <c r="B74" s="42" t="s">
+      <c r="B74" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C74" s="29" t="s">
+      <c r="C74" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D74" s="29" t="s">
+      <c r="D74" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E74" s="29" t="b">
+      <c r="E74" s="16" t="b">
         <v>0</v>
       </c>
       <c r="F74" s="17" t="s">
@@ -3436,99 +3504,344 @@
       <c r="H74" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="I74" s="43" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="34"/>
-      <c r="C75" s="35"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="36"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="37"/>
+      <c r="I74" s="20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>72</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E75" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F75" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G75" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="H75" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="I75" s="20" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B76" s="38" t="s">
+      <c r="A76">
+        <v>73</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E76" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F76" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G76" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="H76" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="I76" s="20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>74</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E77" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F77" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G77" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="H77" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="I77" s="20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>75</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D78" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="E78" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F78" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G78" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="H78" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="I78" s="20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>76</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="E79" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F79" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G79" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="H79" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="I79" s="20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>77</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="E80" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F80" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G80" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="H80" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="I80" s="20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>78</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E81" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F81" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G81" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="H81" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="I81" s="20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="33"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="36"/>
+      <c r="I82" s="36"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B83" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="C76" s="39"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="39"/>
-      <c r="F76" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="G76" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="H76" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="I76" s="40" t="s">
+      <c r="C83" s="38"/>
+      <c r="D83" s="38"/>
+      <c r="E83" s="38"/>
+      <c r="F83" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="G83" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H83" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="I83" s="39" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B77" s="22" t="s">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B84" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="C77" s="41"/>
-      <c r="D77" s="41"/>
-      <c r="E77" s="41"/>
-      <c r="F77" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="G77" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="H77" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="I77" s="26" t="s">
+      <c r="C84" s="40"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="40"/>
+      <c r="F84" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G84" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="H84" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="I84" s="26" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B78" s="22" t="s">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B85" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="C78" s="41"/>
-      <c r="D78" s="41"/>
-      <c r="E78" s="41"/>
-      <c r="F78" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="G78" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="H78" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="I78" s="26" t="s">
+      <c r="C85" s="40"/>
+      <c r="D85" s="40"/>
+      <c r="E85" s="40"/>
+      <c r="F85" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G85" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="H85" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="I85" s="26" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="27" t="s">
+    <row r="86" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="C79" s="28"/>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="G79" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="H79" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="I79" s="33" t="s">
+      <c r="C86" s="28"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="G86" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="H86" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="I86" s="32" t="s">
         <v>1</v>
       </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B88" s="42"/>
+      <c r="C88" s="42"/>
+      <c r="D88" s="42"/>
+      <c r="E88" s="42"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B89" s="42"/>
+      <c r="C89" s="42"/>
+      <c r="D89" s="42"/>
+      <c r="E89" s="42"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B90" s="42"/>
+      <c r="C90" s="42"/>
+      <c r="D90" s="42"/>
+      <c r="E90" s="42"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B91" s="42"/>
+      <c r="C91" s="42"/>
+      <c r="D91" s="42"/>
+      <c r="E91" s="42"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B92" s="42"/>
+      <c r="C92" s="42"/>
+      <c r="D92" s="42"/>
+      <c r="E92" s="42"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B93" s="42"/>
+      <c r="C93" s="42"/>
+      <c r="D93" s="42"/>
+      <c r="E93" s="42"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B94" s="42"/>
+      <c r="C94" s="42"/>
+      <c r="D94" s="42"/>
+      <c r="E94" s="42"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:I3" xr:uid="{EF3BC429-4298-3B4E-8AC6-96C84313FC39}">
